--- a/biology/Botanique/Moliniopsis/Moliniopsis.xlsx
+++ b/biology/Botanique/Moliniopsis/Moliniopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Moliniopsis est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Arundinoideae, originaire d'Extrême-Orient.
-Ce genre, créé en 1925 par le botaniste japonais, Bunzō Hayata,  ne comprend qu'une espèce (genre monotypique), Moliniopsis japonica, détachée du genre Molinia[2].
+Ce genre, créé en 1925 par le botaniste japonais, Bunzō Hayata,  ne comprend qu'une espèce (genre monotypique), Moliniopsis japonica, détachée du genre Molinia.
 Moliniopsis japonica est une plante herbacée vivace, cespiteuse, à rhizome court et aux tiges dressées de 30 à 120 cm de long.
-La plante se rencontre notamment dans l'Extrême-Orient russe, en Chine, au Japon et dans l'est de l'Asie[3]. 
+La plante se rencontre notamment dans l'Extrême-Orient russe, en Chine, au Japon et dans l'est de l'Asie. 
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (11 janvier 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (11 janvier 2017) (Attention liste brute contenant possiblement des synonymes) :
 Moliniopsis hui (Pilg.) Keng
 Moliniopsis intermedia Keng
 Moliniopsis japonica (Hack.) Hayata
